--- a/src/Excel.xlsx
+++ b/src/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Saturday"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="63">
   <si>
     <t>Longest Option</t>
   </si>
@@ -173,43 +173,43 @@
     <t>Sele</t>
   </si>
   <si>
+    <t>ঢাকা মেডিকেল কলেজ হাসপাতাল</t>
+  </si>
+  <si>
     <t>Dates</t>
   </si>
   <si>
-    <t>ঢাকা মেডিকেল কলেজ হাসপাতাল</t>
+    <t>dates nutrition facts 100g</t>
+  </si>
+  <si>
+    <t>dates</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
+    <t>baby mehndi design</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>ইন্টার মায়ামি বনাম শার্লট</t>
+  </si>
+  <si>
+    <t>lookism season 2 release date</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
     <t>sunday suspense mp3 download 2023</t>
   </si>
   <si>
     <t>sunday</t>
-  </si>
-  <si>
-    <t>baby mehndi design</t>
-  </si>
-  <si>
-    <t>baby</t>
-  </si>
-  <si>
-    <t>ইন্টার মায়ামি বনাম শার্লট</t>
-  </si>
-  <si>
-    <t>lookism season 2 release date</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>dates nutrition facts 100g</t>
-  </si>
-  <si>
-    <t>dates</t>
   </si>
 </sst>
 </file>
@@ -217,19 +217,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -292,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -303,17 +297,14 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -625,15 +616,15 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="13.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="13.576428571428572"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="27.14785714285714"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="27.14785714285714"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -644,163 +635,163 @@
       <c r="E1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="32.25" customFormat="1" s="3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="31.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>56</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="31.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -816,15 +807,15 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="13.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="13.576428571428572"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="28.433571428571426"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -835,163 +826,163 @@
       <c r="E1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>54</v>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>56</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1011,148 +1002,180 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="13.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="13.576428571428572"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="32.25" customFormat="1" s="3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="66">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="46.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>50</v>
+      <c r="C4" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1170,11 +1193,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="13.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="13.576428571428572"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1185,99 +1208,127 @@
       <c r="E1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="1"/>
@@ -1285,10 +1336,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1"/>
@@ -1296,10 +1347,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="1"/>
@@ -1307,10 +1358,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="15.75">
       <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="1"/>
@@ -1332,11 +1383,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="13.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="13.576428571428572"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1347,22 +1398,22 @@
       <c r="E1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="32.25" customFormat="1" s="3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
@@ -1370,10 +1421,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
@@ -1381,10 +1432,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1"/>
@@ -1392,10 +1443,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1"/>
@@ -1403,10 +1454,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1"/>
@@ -1414,10 +1465,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="1"/>
@@ -1425,10 +1476,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1"/>
@@ -1436,10 +1487,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1"/>
@@ -1447,10 +1498,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1"/>
@@ -1458,10 +1509,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="1"/>
@@ -1469,10 +1520,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="1"/>
@@ -1480,10 +1531,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="1"/>
@@ -1491,10 +1542,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="1"/>
@@ -1516,11 +1567,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="13.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="13.576428571428572"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1531,22 +1582,22 @@
       <c r="E1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1558,10 +1609,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1573,10 +1624,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1588,10 +1639,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1603,10 +1654,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1618,10 +1669,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1633,10 +1684,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1648,10 +1699,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1663,10 +1714,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1678,10 +1729,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1707,11 +1758,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="13.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="10.147857142857141"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="10.147857142857141"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="8.147857142857141"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="8.290714285714287"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="10.147857142857141"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="10.147857142857141"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="8.147857142857141"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="8.290714285714287"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1722,22 +1773,22 @@
       <c r="E1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
@@ -1745,10 +1796,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
@@ -1756,10 +1807,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1"/>
@@ -1767,10 +1818,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1"/>
@@ -1778,10 +1829,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1"/>
@@ -1789,10 +1840,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1"/>
@@ -1800,10 +1851,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1"/>
@@ -1811,10 +1862,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1"/>
@@ -1822,10 +1873,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1"/>
@@ -1833,10 +1884,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="1"/>
